--- a/Code/Results/Cases/Case_1_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_124/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2733389683297958</v>
+        <v>0.1424853956436465</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03396706799302418</v>
+        <v>0.001537061079751822</v>
       </c>
       <c r="E2">
-        <v>3.183299064104801</v>
+        <v>0.971244539797226</v>
       </c>
       <c r="F2">
-        <v>1.49019906816136</v>
+        <v>0.4802030090081786</v>
       </c>
       <c r="G2">
-        <v>1.661848000943252</v>
+        <v>0.3799583934371782</v>
       </c>
       <c r="H2">
-        <v>0.6921898878974844</v>
+        <v>0.3921776620666293</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.96109215925904</v>
+        <v>5.46345062891146</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2379603210636674</v>
+        <v>0.1329189329742348</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02446619286962726</v>
+        <v>0.001190009458271746</v>
       </c>
       <c r="E3">
-        <v>2.689793405052058</v>
+        <v>0.8535059057366254</v>
       </c>
       <c r="F3">
-        <v>1.201930901801248</v>
+        <v>0.4573835664836992</v>
       </c>
       <c r="G3">
-        <v>1.325422828720633</v>
+        <v>0.3512005984779165</v>
       </c>
       <c r="H3">
-        <v>0.555615171326636</v>
+        <v>0.3913316344414568</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.26525385773189</v>
+        <v>4.771688397558961</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2166095687373399</v>
+        <v>0.1271164234097313</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01960493001444785</v>
+        <v>0.001006887159459069</v>
       </c>
       <c r="E4">
-        <v>2.404505005203745</v>
+        <v>0.7814208774350959</v>
       </c>
       <c r="F4">
-        <v>1.043382693802059</v>
+        <v>0.4447363980145411</v>
       </c>
       <c r="G4">
-        <v>1.141113066716358</v>
+        <v>0.3348924932047197</v>
       </c>
       <c r="H4">
-        <v>0.4824363774118297</v>
+        <v>0.391826831173006</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.68607169397418</v>
+        <v>4.346002943016572</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2079866371691566</v>
+        <v>0.1247698552961083</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01781258183905088</v>
+        <v>0.0009393067780596454</v>
       </c>
       <c r="E5">
-        <v>2.291618705517294</v>
+        <v>0.7520931493393874</v>
       </c>
       <c r="F5">
-        <v>0.9824694434012713</v>
+        <v>0.4399148614288038</v>
       </c>
       <c r="G5">
-        <v>1.070440555245455</v>
+        <v>0.3285729282480077</v>
       </c>
       <c r="H5">
-        <v>0.4547659095729699</v>
+        <v>0.3922777851151977</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.05699876009425</v>
+        <v>4.172274232350247</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2065590900518117</v>
+        <v>0.124381298706794</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01752500505089927</v>
+        <v>0.0009284963697879789</v>
       </c>
       <c r="E6">
-        <v>2.273051425915853</v>
+        <v>0.747226048879952</v>
       </c>
       <c r="F6">
-        <v>0.972554813116119</v>
+        <v>0.4391340077553139</v>
       </c>
       <c r="G6">
-        <v>1.058944685235446</v>
+        <v>0.3275428846087891</v>
       </c>
       <c r="H6">
-        <v>0.4502879488405256</v>
+        <v>0.3923675406459495</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.95330084851244</v>
+        <v>4.143410506719647</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2164929811268337</v>
+        <v>0.1270847037940825</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01958005677437935</v>
+        <v>0.001005947869197499</v>
       </c>
       <c r="E7">
-        <v>2.402970149723288</v>
+        <v>0.7810251667165744</v>
       </c>
       <c r="F7">
-        <v>1.042547308435431</v>
+        <v>0.4446700417160798</v>
       </c>
       <c r="G7">
-        <v>1.1401433210943</v>
+        <v>0.3348059621580433</v>
       </c>
       <c r="H7">
-        <v>0.4820551074844275</v>
+        <v>0.3918319119144087</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.67753455194185</v>
+        <v>4.343661050602037</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2610526279295158</v>
+        <v>0.1391721058803341</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03045030053804965</v>
+        <v>0.001410877104804698</v>
       </c>
       <c r="E8">
-        <v>3.008696556173888</v>
+        <v>0.9306023781991541</v>
       </c>
       <c r="F8">
-        <v>1.386324626366999</v>
+        <v>0.4720452510194519</v>
       </c>
       <c r="G8">
-        <v>1.54042698644156</v>
+        <v>0.3697546665290332</v>
       </c>
       <c r="H8">
-        <v>0.6425132588289557</v>
+        <v>0.3916717280169877</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.01252547603659</v>
+        <v>5.225112178061124</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3523409703623912</v>
+        <v>0.1634404375874112</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06330728243803918</v>
+        <v>0.002465542594332959</v>
       </c>
       <c r="E9">
-        <v>4.412462894551368</v>
+        <v>1.225810626037912</v>
       </c>
       <c r="F9">
-        <v>2.268917407022002</v>
+        <v>0.5370431516352596</v>
       </c>
       <c r="G9">
-        <v>2.578736950704496</v>
+        <v>0.4495992380827829</v>
       </c>
       <c r="H9">
-        <v>1.077225495557144</v>
+        <v>0.3996824639121144</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>24.4715680299407</v>
+        <v>6.94735415644368</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.423866967881338</v>
+        <v>0.1816159560377599</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1043464193094437</v>
+        <v>0.003431821204104679</v>
       </c>
       <c r="E10">
-        <v>5.773254932856162</v>
+        <v>1.444251710462851</v>
       </c>
       <c r="F10">
-        <v>3.196339262286941</v>
+        <v>0.592390378635713</v>
       </c>
       <c r="G10">
-        <v>3.684992752710912</v>
+        <v>0.5160092524539266</v>
       </c>
       <c r="H10">
-        <v>1.556690368528422</v>
+        <v>0.4110289445704325</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>31.31007861424581</v>
+        <v>8.21078158333313</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4583599927208439</v>
+        <v>0.1899600438936062</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1324334805610707</v>
+        <v>0.003920366556256383</v>
       </c>
       <c r="E11">
-        <v>6.582366705279725</v>
+        <v>1.544063417558505</v>
       </c>
       <c r="F11">
-        <v>3.762299981140458</v>
+        <v>0.6193728945512618</v>
       </c>
       <c r="G11">
-        <v>4.367359238295137</v>
+        <v>0.5480933860408186</v>
       </c>
       <c r="H11">
-        <v>1.857589128470551</v>
+        <v>0.4174624682584067</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>35.17201577931769</v>
+        <v>8.78561072456057</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4719065667182889</v>
+        <v>0.1931306643634798</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.145788807952778</v>
+        <v>0.004113047097506595</v>
       </c>
       <c r="E12">
-        <v>6.944983340087248</v>
+        <v>1.581931715700478</v>
       </c>
       <c r="F12">
-        <v>4.016358259195698</v>
+        <v>0.6298630025393237</v>
       </c>
       <c r="G12">
-        <v>4.675455172944595</v>
+        <v>0.5605282666423363</v>
       </c>
       <c r="H12">
-        <v>1.994423001782195</v>
+        <v>0.4200888349962781</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>36.84954709715765</v>
+        <v>9.003336873078808</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4689612047042857</v>
+        <v>0.192447330266404</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.142746550307149</v>
+        <v>0.004071197979117258</v>
       </c>
       <c r="E13">
-        <v>6.863419261770758</v>
+        <v>1.573772769200701</v>
       </c>
       <c r="F13">
-        <v>3.959260044844797</v>
+        <v>0.6275914454226239</v>
       </c>
       <c r="G13">
-        <v>4.60611536274439</v>
+        <v>0.5578372460689991</v>
       </c>
       <c r="H13">
-        <v>1.963579743117663</v>
+        <v>0.4195146266550012</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>36.47517744058996</v>
+        <v>8.956442753830856</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4594626545844989</v>
+        <v>0.19022067450679</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1334627884062192</v>
+        <v>0.003936060870993074</v>
       </c>
       <c r="E14">
-        <v>6.610751953667261</v>
+        <v>1.547177377055448</v>
       </c>
       <c r="F14">
-        <v>3.782200477739011</v>
+        <v>0.620230387387096</v>
       </c>
       <c r="G14">
-        <v>4.39145245835573</v>
+        <v>0.5491106006516304</v>
       </c>
       <c r="H14">
-        <v>1.868269475071401</v>
+        <v>0.4176746884441229</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>35.30454829454396</v>
+        <v>8.803521938790368</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4537178417850214</v>
+        <v>0.1888582018319482</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.12820214747624</v>
+        <v>0.003854304816998777</v>
       </c>
       <c r="E15">
-        <v>6.464845455293386</v>
+        <v>1.530896535030735</v>
       </c>
       <c r="F15">
-        <v>3.67990675094299</v>
+        <v>0.6157573916799919</v>
       </c>
       <c r="G15">
-        <v>4.267679249020006</v>
+        <v>0.5438029127341508</v>
       </c>
       <c r="H15">
-        <v>1.813439658657472</v>
+        <v>0.4165726515946062</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>34.62113036187969</v>
+        <v>8.709861321944629</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4216649734986504</v>
+        <v>0.1810721761904404</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1027829919587102</v>
+        <v>0.003400933004639839</v>
       </c>
       <c r="E16">
-        <v>5.725933339121667</v>
+        <v>1.437738358810265</v>
       </c>
       <c r="F16">
-        <v>3.163418418864566</v>
+        <v>0.5906644186344465</v>
       </c>
       <c r="G16">
-        <v>3.645469097498676</v>
+        <v>0.5139515316785719</v>
       </c>
       <c r="H16">
-        <v>1.539364858801804</v>
+        <v>0.4106347068877483</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>31.07930591676825</v>
+        <v>8.17322012435784</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4025929406307682</v>
+        <v>0.1763151336130164</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09016792770149351</v>
+        <v>0.00313579368659056</v>
       </c>
       <c r="E17">
-        <v>5.333121931414041</v>
+        <v>1.380707625208032</v>
       </c>
       <c r="F17">
-        <v>2.891538258573135</v>
+        <v>0.5757420045841712</v>
       </c>
       <c r="G17">
-        <v>3.319769029144879</v>
+        <v>0.4961297692935602</v>
       </c>
       <c r="H17">
-        <v>1.397082860867158</v>
+        <v>0.4073228285533332</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>29.14354677453656</v>
+        <v>7.844057123830339</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3917904181364378</v>
+        <v>0.1735861586969634</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08368388091977819</v>
+        <v>0.002987863333395069</v>
       </c>
       <c r="E18">
-        <v>5.122650399449697</v>
+        <v>1.347946099938866</v>
       </c>
       <c r="F18">
-        <v>2.747127600421919</v>
+        <v>0.5673281106473667</v>
       </c>
       <c r="G18">
-        <v>3.147289444206081</v>
+        <v>0.4860545686578632</v>
       </c>
       <c r="H18">
-        <v>1.322118135232785</v>
+        <v>0.4055372024969586</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>28.09185750285116</v>
+        <v>7.654737255696489</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3881581569875294</v>
+        <v>0.1726634036713506</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08160007102593969</v>
+        <v>0.002938542723104121</v>
       </c>
       <c r="E19">
-        <v>5.053609303624967</v>
+        <v>1.33686042007443</v>
       </c>
       <c r="F19">
-        <v>2.699987089270593</v>
+        <v>0.5645079638823063</v>
       </c>
       <c r="G19">
-        <v>3.091064613026845</v>
+        <v>0.4826729288121783</v>
       </c>
       <c r="H19">
-        <v>1.297743302387659</v>
+        <v>0.4049528893955596</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>27.74471479814895</v>
+        <v>7.590636723058537</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4046050094648592</v>
+        <v>0.1768207891223028</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09142552052311004</v>
+        <v>0.003163540636174744</v>
       </c>
       <c r="E20">
-        <v>5.373224330852423</v>
+        <v>1.386774338747898</v>
       </c>
       <c r="F20">
-        <v>2.919164233647464</v>
+        <v>0.5773129292181665</v>
       </c>
       <c r="G20">
-        <v>3.352805704653605</v>
+        <v>0.4980086590239239</v>
       </c>
       <c r="H20">
-        <v>1.41147311703304</v>
+        <v>0.407662987031955</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>29.34279710230589</v>
+        <v>7.879096202803453</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4622365220238578</v>
+        <v>0.1908744017464556</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1360950756814647</v>
+        <v>0.003975540318810644</v>
       </c>
       <c r="E21">
-        <v>6.682994804840888</v>
+        <v>1.554987071328583</v>
       </c>
       <c r="F21">
-        <v>3.832844175424654</v>
+        <v>0.6223850108650026</v>
       </c>
       <c r="G21">
-        <v>4.45279664393513</v>
+        <v>0.5516659560802282</v>
       </c>
       <c r="H21">
-        <v>1.895478683270682</v>
+        <v>0.4182099042378979</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>35.64092865486907</v>
+        <v>8.848436792042548</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5031652925518983</v>
+        <v>0.2001227509912269</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1844305924889982</v>
+        <v>0.004551301348367787</v>
       </c>
       <c r="E22">
-        <v>7.938575565858031</v>
+        <v>1.665346490277898</v>
       </c>
       <c r="F22">
-        <v>4.705795251486705</v>
+        <v>0.6534362974816332</v>
       </c>
       <c r="G22">
-        <v>5.517222822430341</v>
+        <v>0.5884048102143993</v>
       </c>
       <c r="H22">
-        <v>2.370811740593837</v>
+        <v>0.426214648476531</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>41.26730370829978</v>
+        <v>9.482272983370081</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4808417451964431</v>
+        <v>0.1951809291640672</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1555542857306786</v>
+        <v>0.004239666131097053</v>
       </c>
       <c r="E23">
-        <v>7.20307757132386</v>
+        <v>1.606404005937264</v>
       </c>
       <c r="F23">
-        <v>4.196703967257747</v>
+        <v>0.636713433369593</v>
       </c>
       <c r="G23">
-        <v>4.894837799363216</v>
+        <v>0.5686383704714899</v>
       </c>
       <c r="H23">
-        <v>2.092179273492036</v>
+        <v>0.4218382040413076</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>38.02266395811137</v>
+        <v>9.14394041958667</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4036948588943403</v>
+        <v>0.1765921638473884</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09085463967066865</v>
+        <v>0.003150982265909263</v>
       </c>
       <c r="E24">
-        <v>5.355047665309058</v>
+        <v>1.384031496554229</v>
       </c>
       <c r="F24">
-        <v>2.90663847555642</v>
+        <v>0.5766022005992539</v>
       </c>
       <c r="G24">
-        <v>3.337825076820252</v>
+        <v>0.4971586822676102</v>
       </c>
       <c r="H24">
-        <v>1.404946569786688</v>
+        <v>0.4075088330859558</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>29.25253095303214</v>
+        <v>7.863255286198125</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3270644381515666</v>
+        <v>0.1568146364597709</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05248954572673714</v>
+        <v>0.002149039155971977</v>
       </c>
       <c r="E25">
-        <v>3.995850489216537</v>
+        <v>1.145707788164344</v>
       </c>
       <c r="F25">
-        <v>1.996811731911222</v>
+        <v>0.5181772474600876</v>
       </c>
       <c r="G25">
-        <v>2.257056512517352</v>
+        <v>0.4267013635422927</v>
       </c>
       <c r="H25">
-        <v>0.9404840128115666</v>
+        <v>0.3965847713589028</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.29851535793975</v>
+        <v>6.481925672891293</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_124/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424853956436465</v>
+        <v>0.2733389683299237</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001537061079751822</v>
+        <v>0.03396706799305083</v>
       </c>
       <c r="E2">
-        <v>0.971244539797226</v>
+        <v>3.183299064104858</v>
       </c>
       <c r="F2">
-        <v>0.4802030090081786</v>
+        <v>1.490199068161374</v>
       </c>
       <c r="G2">
-        <v>0.3799583934371782</v>
+        <v>1.661848000943223</v>
       </c>
       <c r="H2">
-        <v>0.3921776620666293</v>
+        <v>0.6921898878973707</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.46345062891146</v>
+        <v>17.96109215925947</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329189329742348</v>
+        <v>0.237960321063909</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001190009458271746</v>
+        <v>0.02446619286970275</v>
       </c>
       <c r="E3">
-        <v>0.8535059057366254</v>
+        <v>2.689793405052114</v>
       </c>
       <c r="F3">
-        <v>0.4573835664836992</v>
+        <v>1.201930901801248</v>
       </c>
       <c r="G3">
-        <v>0.3512005984779165</v>
+        <v>1.325422828720662</v>
       </c>
       <c r="H3">
-        <v>0.3913316344414568</v>
+        <v>0.555615171326636</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.771688397558961</v>
+        <v>15.26525385773201</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271164234097313</v>
+        <v>0.2166095687367999</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001006887159459069</v>
+        <v>0.0196049300143315</v>
       </c>
       <c r="E4">
-        <v>0.7814208774350959</v>
+        <v>2.404505005203731</v>
       </c>
       <c r="F4">
-        <v>0.4447363980145411</v>
+        <v>1.04338269380203</v>
       </c>
       <c r="G4">
-        <v>0.3348924932047197</v>
+        <v>1.141113066716329</v>
       </c>
       <c r="H4">
-        <v>0.391826831173006</v>
+        <v>0.4824363774117018</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.346002943016572</v>
+        <v>13.68607169397407</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247698552961083</v>
+        <v>0.2079866371680623</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0009393067780596454</v>
+        <v>0.01781258183915924</v>
       </c>
       <c r="E5">
-        <v>0.7520931493393874</v>
+        <v>2.291618705517322</v>
       </c>
       <c r="F5">
-        <v>0.4399148614288038</v>
+        <v>0.9824694434012997</v>
       </c>
       <c r="G5">
-        <v>0.3285729282480077</v>
+        <v>1.07044055524544</v>
       </c>
       <c r="H5">
-        <v>0.3922777851151977</v>
+        <v>0.4547659095728847</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.172274232350247</v>
+        <v>13.05699876009442</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.124381298706794</v>
+        <v>0.2065590900518544</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0009284963697879789</v>
+        <v>0.01752500505089305</v>
       </c>
       <c r="E6">
-        <v>0.747226048879952</v>
+        <v>2.273051425915796</v>
       </c>
       <c r="F6">
-        <v>0.4391340077553139</v>
+        <v>0.9725548131161474</v>
       </c>
       <c r="G6">
-        <v>0.3275428846087891</v>
+        <v>1.05894468523546</v>
       </c>
       <c r="H6">
-        <v>0.3923675406459495</v>
+        <v>0.4502879488404261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.143410506719647</v>
+        <v>12.95330084851253</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270847037940825</v>
+        <v>0.2164929811262795</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.001005947869197499</v>
+        <v>0.019580056774398</v>
       </c>
       <c r="E7">
-        <v>0.7810251667165744</v>
+        <v>2.402970149723174</v>
       </c>
       <c r="F7">
-        <v>0.4446700417160798</v>
+        <v>1.042547308435473</v>
       </c>
       <c r="G7">
-        <v>0.3348059621580433</v>
+        <v>1.140143321094371</v>
       </c>
       <c r="H7">
-        <v>0.3918319119144087</v>
+        <v>0.4820551074844133</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.343661050602037</v>
+        <v>13.67753455194153</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391721058803341</v>
+        <v>0.2610526279297432</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.001410877104804698</v>
+        <v>0.0304503005381731</v>
       </c>
       <c r="E8">
-        <v>0.9306023781991541</v>
+        <v>3.008696556173845</v>
       </c>
       <c r="F8">
-        <v>0.4720452510194519</v>
+        <v>1.386324626366999</v>
       </c>
       <c r="G8">
-        <v>0.3697546665290332</v>
+        <v>1.54042698644156</v>
       </c>
       <c r="H8">
-        <v>0.3916717280169877</v>
+        <v>0.6425132588290694</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.225112178061124</v>
+        <v>17.01252547603644</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1634404375874112</v>
+        <v>0.3523409703620359</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.002465542594332959</v>
+        <v>0.06330728243813333</v>
       </c>
       <c r="E9">
-        <v>1.225810626037912</v>
+        <v>4.412462894551396</v>
       </c>
       <c r="F9">
-        <v>0.5370431516352596</v>
+        <v>2.268917407021988</v>
       </c>
       <c r="G9">
-        <v>0.4495992380827829</v>
+        <v>2.578736950704496</v>
       </c>
       <c r="H9">
-        <v>0.3996824639121144</v>
+        <v>1.077225495557258</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.94735415644368</v>
+        <v>24.47156802994093</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1816159560377599</v>
+        <v>0.4238669678813949</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.003431821204104679</v>
+        <v>0.104346419309354</v>
       </c>
       <c r="E10">
-        <v>1.444251710462851</v>
+        <v>5.773254932856361</v>
       </c>
       <c r="F10">
-        <v>0.592390378635713</v>
+        <v>3.196339262287026</v>
       </c>
       <c r="G10">
-        <v>0.5160092524539266</v>
+        <v>3.684992752710883</v>
       </c>
       <c r="H10">
-        <v>0.4110289445704325</v>
+        <v>1.556690368528365</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.21078158333313</v>
+        <v>31.31007861424644</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1899600438936062</v>
+        <v>0.4583599927200481</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.003920366556256383</v>
+        <v>0.1324334805611871</v>
       </c>
       <c r="E11">
-        <v>1.544063417558505</v>
+        <v>6.582366705279753</v>
       </c>
       <c r="F11">
-        <v>0.6193728945512618</v>
+        <v>3.762299981140401</v>
       </c>
       <c r="G11">
-        <v>0.5480933860408186</v>
+        <v>4.367359238295137</v>
       </c>
       <c r="H11">
-        <v>0.4174624682584067</v>
+        <v>1.857589128470408</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8.78561072456057</v>
+        <v>35.1720157793178</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1931306643634798</v>
+        <v>0.4719065667176352</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.004113047097506595</v>
+        <v>0.1457888079527914</v>
       </c>
       <c r="E12">
-        <v>1.581931715700478</v>
+        <v>6.944983340087305</v>
       </c>
       <c r="F12">
-        <v>0.6298630025393237</v>
+        <v>4.016358259195712</v>
       </c>
       <c r="G12">
-        <v>0.5605282666423363</v>
+        <v>4.675455172944652</v>
       </c>
       <c r="H12">
-        <v>0.4200888349962781</v>
+        <v>1.994423001782195</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.003336873078808</v>
+        <v>36.84954709715788</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.192447330266404</v>
+        <v>0.4689612047037031</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.004071197979117258</v>
+        <v>0.1427465503070522</v>
       </c>
       <c r="E13">
-        <v>1.573772769200701</v>
+        <v>6.863419261770645</v>
       </c>
       <c r="F13">
-        <v>0.6275914454226239</v>
+        <v>3.95926004484474</v>
       </c>
       <c r="G13">
-        <v>0.5578372460689991</v>
+        <v>4.606115362744163</v>
       </c>
       <c r="H13">
-        <v>0.4195146266550012</v>
+        <v>1.963579743117606</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.956442753830856</v>
+        <v>36.4751774405895</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.19022067450679</v>
+        <v>0.4594626545842857</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.003936060870993074</v>
+        <v>0.1334627884060637</v>
       </c>
       <c r="E14">
-        <v>1.547177377055448</v>
+        <v>6.610751953667346</v>
       </c>
       <c r="F14">
-        <v>0.620230387387096</v>
+        <v>3.782200477739025</v>
       </c>
       <c r="G14">
-        <v>0.5491106006516304</v>
+        <v>4.391452458355786</v>
       </c>
       <c r="H14">
-        <v>0.4176746884441229</v>
+        <v>1.868269475071457</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.803521938790368</v>
+        <v>35.30454829454425</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1888582018319482</v>
+        <v>0.4537178417853198</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.003854304816998777</v>
+        <v>0.1282021474763333</v>
       </c>
       <c r="E15">
-        <v>1.530896535030735</v>
+        <v>6.464845455293414</v>
       </c>
       <c r="F15">
-        <v>0.6157573916799919</v>
+        <v>3.679906750942919</v>
       </c>
       <c r="G15">
-        <v>0.5438029127341508</v>
+        <v>4.267679249019892</v>
       </c>
       <c r="H15">
-        <v>0.4165726515946062</v>
+        <v>1.813439658657444</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>8.709861321944629</v>
+        <v>34.62113036187964</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1810721761904404</v>
+        <v>0.4216649734999862</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.003400933004639839</v>
+        <v>0.1027829919587333</v>
       </c>
       <c r="E16">
-        <v>1.437738358810265</v>
+        <v>5.725933339121639</v>
       </c>
       <c r="F16">
-        <v>0.5906644186344465</v>
+        <v>3.163418418864566</v>
       </c>
       <c r="G16">
-        <v>0.5139515316785719</v>
+        <v>3.645469097498705</v>
       </c>
       <c r="H16">
-        <v>0.4106347068877483</v>
+        <v>1.53936485880169</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8.17322012435784</v>
+        <v>31.07930591676825</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1763151336130164</v>
+        <v>0.4025929406318198</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.00313579368659056</v>
+        <v>0.09016792770142779</v>
       </c>
       <c r="E17">
-        <v>1.380707625208032</v>
+        <v>5.333121931414212</v>
       </c>
       <c r="F17">
-        <v>0.5757420045841712</v>
+        <v>2.891538258573149</v>
       </c>
       <c r="G17">
-        <v>0.4961297692935602</v>
+        <v>3.319769029144851</v>
       </c>
       <c r="H17">
-        <v>0.4073228285533332</v>
+        <v>1.3970828608673</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.844057123830339</v>
+        <v>29.14354677453696</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1735861586969634</v>
+        <v>0.391790418136452</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.002987863333395069</v>
+        <v>0.08368388091996071</v>
       </c>
       <c r="E18">
-        <v>1.347946099938866</v>
+        <v>5.122650399449697</v>
       </c>
       <c r="F18">
-        <v>0.5673281106473667</v>
+        <v>2.747127600421933</v>
       </c>
       <c r="G18">
-        <v>0.4860545686578632</v>
+        <v>3.147289444206109</v>
       </c>
       <c r="H18">
-        <v>0.4055372024969586</v>
+        <v>1.322118135232927</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7.654737255696489</v>
+        <v>28.0918575028511</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1726634036713506</v>
+        <v>0.3881581569881405</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.002938542723104121</v>
+        <v>0.08160007102603561</v>
       </c>
       <c r="E19">
-        <v>1.33686042007443</v>
+        <v>5.053609303624995</v>
       </c>
       <c r="F19">
-        <v>0.5645079638823063</v>
+        <v>2.699987089270635</v>
       </c>
       <c r="G19">
-        <v>0.4826729288121783</v>
+        <v>3.091064613026873</v>
       </c>
       <c r="H19">
-        <v>0.4049528893955596</v>
+        <v>1.297743302387545</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.590636723058537</v>
+        <v>27.74471479814889</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1768207891223028</v>
+        <v>0.4046050094650155</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.003163540636174744</v>
+        <v>0.09142552052319441</v>
       </c>
       <c r="E20">
-        <v>1.386774338747898</v>
+        <v>5.373224330852423</v>
       </c>
       <c r="F20">
-        <v>0.5773129292181665</v>
+        <v>2.919164233647479</v>
       </c>
       <c r="G20">
-        <v>0.4980086590239239</v>
+        <v>3.352805704653605</v>
       </c>
       <c r="H20">
-        <v>0.407662987031955</v>
+        <v>1.41147311703304</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.879096202803453</v>
+        <v>29.34279710230595</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1908744017464556</v>
+        <v>0.4622365220244689</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.003975540318810644</v>
+        <v>0.1360950756813919</v>
       </c>
       <c r="E21">
-        <v>1.554987071328583</v>
+        <v>6.682994804841144</v>
       </c>
       <c r="F21">
-        <v>0.6223850108650026</v>
+        <v>3.832844175424697</v>
       </c>
       <c r="G21">
-        <v>0.5516659560802282</v>
+        <v>4.452796643935187</v>
       </c>
       <c r="H21">
-        <v>0.4182099042378979</v>
+        <v>1.895478683270738</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.848436792042548</v>
+        <v>35.64092865486998</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2001227509912269</v>
+        <v>0.5031652925518131</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.004551301348367787</v>
+        <v>0.1844305924891012</v>
       </c>
       <c r="E22">
-        <v>1.665346490277898</v>
+        <v>7.938575565858372</v>
       </c>
       <c r="F22">
-        <v>0.6534362974816332</v>
+        <v>4.705795251486819</v>
       </c>
       <c r="G22">
-        <v>0.5884048102143993</v>
+        <v>5.517222822430455</v>
       </c>
       <c r="H22">
-        <v>0.426214648476531</v>
+        <v>2.370811740594007</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.482272983370081</v>
+        <v>41.26730370830091</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1951809291640672</v>
+        <v>0.4808417451960594</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.004239666131097053</v>
+        <v>0.1555542857306724</v>
       </c>
       <c r="E23">
-        <v>1.606404005937264</v>
+        <v>7.203077571323831</v>
       </c>
       <c r="F23">
-        <v>0.636713433369593</v>
+        <v>4.196703967257719</v>
       </c>
       <c r="G23">
-        <v>0.5686383704714899</v>
+        <v>4.894837799363188</v>
       </c>
       <c r="H23">
-        <v>0.4218382040413076</v>
+        <v>2.092179273491865</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.14394041958667</v>
+        <v>38.02266395811097</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1765921638473884</v>
+        <v>0.403694858894653</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.003150982265909263</v>
+        <v>0.09085463967075746</v>
       </c>
       <c r="E24">
-        <v>1.384031496554229</v>
+        <v>5.355047665309201</v>
       </c>
       <c r="F24">
-        <v>0.5766022005992539</v>
+        <v>2.906638475556448</v>
       </c>
       <c r="G24">
-        <v>0.4971586822676102</v>
+        <v>3.337825076820224</v>
       </c>
       <c r="H24">
-        <v>0.4075088330859558</v>
+        <v>1.404946569786659</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.863255286198125</v>
+        <v>29.25253095303236</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1568146364597709</v>
+        <v>0.3270644381516945</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.002149039155971977</v>
+        <v>0.05248954572680553</v>
       </c>
       <c r="E25">
-        <v>1.145707788164344</v>
+        <v>3.995850489216537</v>
       </c>
       <c r="F25">
-        <v>0.5181772474600876</v>
+        <v>1.996811731911251</v>
       </c>
       <c r="G25">
-        <v>0.4267013635422927</v>
+        <v>2.25705651251738</v>
       </c>
       <c r="H25">
-        <v>0.3965847713589028</v>
+        <v>0.9404840128115666</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6.481925672891293</v>
+        <v>22.29851535793969</v>
       </c>
       <c r="N25">
         <v>0</v>
